--- a/biology/Médecine/Cholestase_intrahépatique_familiale_progressive_à_activité_gamma-glutamyl-transférase_basse/Cholestase_intrahépatique_familiale_progressive_à_activité_gamma-glutamyl-transférase_basse.xlsx
+++ b/biology/Médecine/Cholestase_intrahépatique_familiale_progressive_à_activité_gamma-glutamyl-transférase_basse/Cholestase_intrahépatique_familiale_progressive_à_activité_gamma-glutamyl-transférase_basse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cholestase_intrah%C3%A9patique_familiale_progressive_%C3%A0_activit%C3%A9_gamma-glutamyl-transf%C3%A9rase_basse</t>
+          <t>Cholestase_intrahépatique_familiale_progressive_à_activité_gamma-glutamyl-transférase_basse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La cholestase intrahépatique familiale progressive à activité gamma-glutamyl-transférase basse est une maladie génétique qui se manifeste sous différentes formes.
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cholestase_intrah%C3%A9patique_familiale_progressive_%C3%A0_activit%C3%A9_gamma-glutamyl-transf%C3%A9rase_basse</t>
+          <t>Cholestase_intrahépatique_familiale_progressive_à_activité_gamma-glutamyl-transférase_basse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,9 +530,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Alexander S Knisely, Laura Bull, Benjamin L Shneider, Low-gamma GT Familial Intrahepatic Cholestasis In: GeneReviews at GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1997-2006. [1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Alexander S Knisely, Laura Bull, Benjamin L Shneider, Low-gamma GT Familial Intrahepatic Cholestasis In: GeneReviews at GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1997-2006. 
  Portail de la médecine                     </t>
         </is>
       </c>
